--- a/최종산출물/2팀_TEST CASE_end.xlsx
+++ b/최종산출물/2팀_TEST CASE_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733911D6-DA9D-4A54-BE12-DC8081B76670}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A3804-9E9D-4D0D-83A2-3B96B6FD8E8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C4653DDA-2A31-4581-AC8B-3E49CE1F0A06}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{C4653DDA-2A31-4581-AC8B-3E49CE1F0A06}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="151">
   <si>
     <t>SC_01</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -737,6 +737,11 @@
 Condition.findOne()
 Condition.update()</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>**** Error 발생
+(전공개수 미기입 오류)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -984,6 +989,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,15 +1035,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A31FC93-0909-4736-81A3-28A19254C726}">
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1500,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93BE945-F951-4D3B-A7C5-528FFBEC93B7}">
   <dimension ref="B3:W46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1530,84 +1535,84 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="9"/>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="20" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="22" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1647,9 +1652,9 @@
       <c r="T5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="29"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
     </row>
     <row r="6" spans="2:23" ht="102" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
@@ -2344,7 +2349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" ht="34" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
@@ -2393,11 +2398,11 @@
       <c r="U17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>94</v>
+      <c r="V17" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="204" x14ac:dyDescent="0.45">
@@ -2924,11 +2929,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
     <mergeCell ref="V3:V5"/>
     <mergeCell ref="W3:W5"/>
     <mergeCell ref="G4:G5"/>
@@ -2936,6 +2936,11 @@
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="U3:U5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
